--- a/extractosBancarios/22102022/0014-17102022.xlsx
+++ b/extractosBancarios/22102022/0014-17102022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://industriasvenado.sharepoint.com/sites/113PROYECTOS/Documentos compartidos/1.13 PROYECTOS/8.- PROYECTOS NO COMERCIALES/1.- PROYECTO - AUTOMATIZACIÓN TESORERÍA Y CONTABILIDAD VENADO + BLOOMCKER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DanielBots\SapHunter\extractosBancarios\22102022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{FD634B63-C686-421F-A35D-FD02025828C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18A74079-6686-4445-AD3E-A036DD8231A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E12645D-B07D-4B13-9C25-2F91CD4C438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F5876DD1-C0B6-4B6C-B076-9063CF9A6F2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F5876DD1-C0B6-4B6C-B076-9063CF9A6F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="UNION" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
     <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1407,7 +1408,7 @@
     <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1999,20 +2000,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2023,11 +2013,23 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -2073,7 +2075,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3080,7 +3081,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3382,13 +3383,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3412,12 +3413,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44715</v>
       </c>
@@ -3468,7 +3469,7 @@
       </c>
       <c r="I6" s="67"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>44715</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>Z001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>44715</v>
       </c>
@@ -3522,7 +3523,7 @@
         <v>Z001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>44715</v>
       </c>
@@ -3549,36 +3550,36 @@
         <v>Z001</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
@@ -3629,10 +3630,10 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B9:G10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" customWidth="1"/>
@@ -3640,7 +3641,7 @@
     <col min="9" max="9" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="68"/>
       <c r="B1" s="10"/>
       <c r="C1" s="13" t="s">
@@ -3649,12 +3650,12 @@
       <c r="D1" s="10"/>
       <c r="H1" s="68"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="68"/>
       <c r="B2" s="10"/>
       <c r="H2" s="68"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="68"/>
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
@@ -3664,7 +3665,7 @@
       <c r="G3" s="68"/>
       <c r="H3" s="68"/>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -3674,7 +3675,7 @@
       <c r="G4" s="71"/>
       <c r="H4" s="68"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="68"/>
       <c r="B5" s="14" t="s">
         <v>42</v>
@@ -3692,7 +3693,7 @@
       </c>
       <c r="H5" s="68"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="68"/>
       <c r="B6" s="19" t="s">
         <v>46</v>
@@ -3710,7 +3711,7 @@
       </c>
       <c r="H6" s="68"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="68"/>
       <c r="B7" s="19" t="s">
         <v>50</v>
@@ -3728,7 +3729,7 @@
       </c>
       <c r="H7" s="68"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="68"/>
       <c r="B8" s="19" t="s">
         <v>53</v>
@@ -3746,7 +3747,7 @@
       </c>
       <c r="H8" s="68"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="68"/>
       <c r="B9" s="70"/>
       <c r="C9" s="71"/>
@@ -3756,7 +3757,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="68"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="72"/>
       <c r="C10" s="72"/>
@@ -3766,7 +3767,7 @@
       <c r="G10" s="72"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
@@ -3781,7 +3782,7 @@
       <c r="L11" s="68"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="68"/>
       <c r="B12" s="10"/>
       <c r="C12" s="13" t="s">
@@ -3789,11 +3790,11 @@
       </c>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
       <c r="B14" s="69" t="s">
         <v>56</v>
@@ -3809,7 +3810,7 @@
       <c r="K14" s="69"/>
       <c r="L14" s="69"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="68"/>
       <c r="B15" s="28" t="s">
         <v>7</v>
@@ -3845,7 +3846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
       <c r="B16" s="32">
         <v>44715</v>
@@ -3881,7 +3882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="68"/>
       <c r="B17" s="38">
         <v>44715</v>
@@ -3917,7 +3918,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
       <c r="B18" s="32">
         <v>44715</v>
@@ -3953,7 +3954,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="68"/>
       <c r="B19" s="45" t="s">
         <v>28</v>
@@ -3962,7 +3963,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="68"/>
       <c r="B20" s="47" t="s">
         <v>30</v>
@@ -4002,7 +4003,7 @@
       <selection activeCell="T55" sqref="T13:U55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -5670,2212 +5671,2497 @@
     <col min="16158" max="16384" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="44.65" customHeight="1">
-      <c r="A1" s="95"/>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-    </row>
-    <row r="2" spans="1:29" ht="8.85" customHeight="1"/>
-    <row r="3" spans="1:29" ht="16.7" customHeight="1">
-      <c r="M3" s="79" t="s">
+    <row r="1" spans="1:29" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+    </row>
+    <row r="2" spans="1:29" ht="8.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:29" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-    </row>
-    <row r="4" spans="1:29" ht="16.899999999999999" customHeight="1"/>
-    <row r="5" spans="1:29" ht="17.100000000000001" customHeight="1">
-      <c r="C5" s="77" t="s">
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+    </row>
+    <row r="4" spans="1:29" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="78" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-    </row>
-    <row r="6" spans="1:29" ht="17.100000000000001" customHeight="1">
-      <c r="C6" s="77" t="s">
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+    </row>
+    <row r="6" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="78" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-    </row>
-    <row r="7" spans="1:29" ht="17.100000000000001" customHeight="1">
-      <c r="C7" s="77" t="s">
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+    </row>
+    <row r="7" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="78" t="s">
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-    </row>
-    <row r="8" spans="1:29" ht="17.100000000000001" customHeight="1">
-      <c r="C8" s="77" t="s">
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+    </row>
+    <row r="8" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="78" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-    </row>
-    <row r="9" spans="1:29" ht="15" hidden="1" customHeight="1"/>
-    <row r="10" spans="1:29" ht="16.899999999999999" customHeight="1"/>
-    <row r="11" spans="1:29">
-      <c r="B11" s="75" t="s">
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+    </row>
+    <row r="9" spans="1:29" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:29" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="95"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="95"/>
+      <c r="G11" s="73"/>
       <c r="H11" s="49"/>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="95"/>
+      <c r="J11" s="73"/>
       <c r="K11" s="49"/>
-      <c r="L11" s="75" t="s">
+      <c r="L11" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="95"/>
+      <c r="M11" s="73"/>
       <c r="N11" s="49"/>
       <c r="O11" s="49" t="s">
         <v>82</v>
       </c>
       <c r="P11" s="49"/>
-      <c r="Q11" s="75" t="s">
+      <c r="Q11" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="R11" s="95"/>
+      <c r="R11" s="73"/>
       <c r="S11" s="49"/>
-      <c r="T11" s="76" t="s">
+      <c r="T11" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="U11" s="95"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="49"/>
       <c r="W11" s="50" t="s">
         <v>12</v>
       </c>
       <c r="X11" s="49"/>
-      <c r="Y11" s="76" t="s">
+      <c r="Y11" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
       <c r="AB11" s="49"/>
     </row>
-    <row r="12" spans="1:29">
-      <c r="B12" s="75"/>
-      <c r="C12" s="95"/>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="79"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="95"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="73"/>
       <c r="H12" s="49"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="95"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="73"/>
       <c r="K12" s="49"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="95"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="73"/>
       <c r="N12" s="49"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="95"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="73"/>
       <c r="S12" s="49"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="95"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="73"/>
       <c r="V12" s="49"/>
       <c r="W12" s="50"/>
       <c r="X12" s="49"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
       <c r="AB12" s="49"/>
     </row>
-    <row r="13" spans="1:29">
-      <c r="B13" s="74" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="95"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="51"/>
       <c r="E13" s="51"/>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="95"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="95"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="51"/>
-      <c r="L13" s="74" t="s">
+      <c r="L13" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="M13" s="95"/>
+      <c r="M13" s="73"/>
       <c r="N13" s="51"/>
       <c r="O13" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P13" s="51"/>
-      <c r="Q13" s="74" t="s">
+      <c r="Q13" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="95"/>
+      <c r="R13" s="73"/>
       <c r="S13" s="51"/>
-      <c r="T13" s="73" t="s">
+      <c r="T13" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="U13" s="95"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="51"/>
       <c r="W13" s="52" t="s">
         <v>91</v>
       </c>
       <c r="X13" s="51"/>
-      <c r="Y13" s="73" t="s">
+      <c r="Y13" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
       <c r="AB13" s="51"/>
     </row>
-    <row r="14" spans="1:29">
-      <c r="B14" s="74" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B14" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="95"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="95"/>
+      <c r="G14" s="73"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="95"/>
+      <c r="J14" s="73"/>
       <c r="K14" s="51"/>
-      <c r="L14" s="74" t="s">
+      <c r="L14" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="95"/>
+      <c r="M14" s="73"/>
       <c r="N14" s="51"/>
       <c r="O14" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P14" s="51"/>
-      <c r="Q14" s="74" t="s">
+      <c r="Q14" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="R14" s="95"/>
+      <c r="R14" s="73"/>
       <c r="S14" s="51"/>
-      <c r="T14" s="73" t="s">
+      <c r="T14" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="U14" s="95"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="51"/>
       <c r="W14" s="52" t="s">
         <v>97</v>
       </c>
       <c r="X14" s="51"/>
-      <c r="Y14" s="73" t="s">
+      <c r="Y14" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
       <c r="AB14" s="51"/>
     </row>
-    <row r="15" spans="1:29">
-      <c r="B15" s="74" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B15" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="95"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="51"/>
       <c r="E15" s="51"/>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="95"/>
+      <c r="G15" s="73"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="95"/>
+      <c r="J15" s="73"/>
       <c r="K15" s="51"/>
-      <c r="L15" s="74" t="s">
+      <c r="L15" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M15" s="95"/>
+      <c r="M15" s="73"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P15" s="51"/>
-      <c r="Q15" s="74" t="s">
+      <c r="Q15" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R15" s="95"/>
+      <c r="R15" s="73"/>
       <c r="S15" s="51"/>
-      <c r="T15" s="73" t="s">
+      <c r="T15" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="U15" s="95"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="51"/>
       <c r="W15" s="52" t="s">
         <v>104</v>
       </c>
       <c r="X15" s="51"/>
-      <c r="Y15" s="73" t="s">
+      <c r="Y15" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
       <c r="AB15" s="51"/>
     </row>
-    <row r="16" spans="1:29">
-      <c r="B16" s="74" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B16" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="95"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="95"/>
+      <c r="G16" s="73"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="74" t="s">
+      <c r="I16" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="95"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="51"/>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="95"/>
+      <c r="M16" s="73"/>
       <c r="N16" s="51"/>
       <c r="O16" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P16" s="51"/>
-      <c r="Q16" s="74" t="s">
+      <c r="Q16" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R16" s="95"/>
+      <c r="R16" s="73"/>
       <c r="S16" s="51"/>
-      <c r="T16" s="73" t="s">
+      <c r="T16" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="U16" s="95"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="51"/>
       <c r="W16" s="52" t="s">
         <v>109</v>
       </c>
       <c r="X16" s="51"/>
-      <c r="Y16" s="73" t="s">
+      <c r="Y16" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
       <c r="AB16" s="51"/>
     </row>
-    <row r="17" spans="2:28">
-      <c r="B17" s="74" t="s">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="95"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="51"/>
       <c r="E17" s="51"/>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="95"/>
+      <c r="G17" s="73"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="J17" s="95"/>
+      <c r="J17" s="73"/>
       <c r="K17" s="51"/>
-      <c r="L17" s="74" t="s">
+      <c r="L17" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="95"/>
+      <c r="M17" s="73"/>
       <c r="N17" s="51"/>
       <c r="O17" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P17" s="51"/>
-      <c r="Q17" s="74" t="s">
+      <c r="Q17" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R17" s="95"/>
+      <c r="R17" s="73"/>
       <c r="S17" s="51"/>
-      <c r="T17" s="73" t="s">
+      <c r="T17" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="U17" s="95"/>
+      <c r="U17" s="73"/>
       <c r="V17" s="51"/>
       <c r="W17" s="52" t="s">
         <v>114</v>
       </c>
       <c r="X17" s="51"/>
-      <c r="Y17" s="73" t="s">
+      <c r="Y17" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
       <c r="AB17" s="51"/>
     </row>
-    <row r="18" spans="2:28">
-      <c r="B18" s="74" t="s">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="95"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="51"/>
       <c r="E18" s="51"/>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="95"/>
+      <c r="G18" s="73"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="74" t="s">
+      <c r="I18" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="95"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="51"/>
-      <c r="L18" s="74" t="s">
+      <c r="L18" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M18" s="95"/>
+      <c r="M18" s="73"/>
       <c r="N18" s="51"/>
       <c r="O18" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P18" s="51"/>
-      <c r="Q18" s="74" t="s">
+      <c r="Q18" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R18" s="95"/>
+      <c r="R18" s="73"/>
       <c r="S18" s="51"/>
-      <c r="T18" s="73" t="s">
+      <c r="T18" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="U18" s="95"/>
+      <c r="U18" s="73"/>
       <c r="V18" s="51"/>
       <c r="W18" s="52" t="s">
         <v>119</v>
       </c>
       <c r="X18" s="51"/>
-      <c r="Y18" s="73" t="s">
+      <c r="Y18" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
       <c r="AB18" s="51"/>
     </row>
-    <row r="19" spans="2:28">
-      <c r="B19" s="74" t="s">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="95"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="51"/>
       <c r="E19" s="51"/>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="95"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="51"/>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="95"/>
+      <c r="J19" s="73"/>
       <c r="K19" s="51"/>
-      <c r="L19" s="74" t="s">
+      <c r="L19" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M19" s="95"/>
+      <c r="M19" s="73"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P19" s="51"/>
-      <c r="Q19" s="74" t="s">
+      <c r="Q19" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R19" s="95"/>
+      <c r="R19" s="73"/>
       <c r="S19" s="51"/>
-      <c r="T19" s="73" t="s">
+      <c r="T19" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="U19" s="95"/>
+      <c r="U19" s="73"/>
       <c r="V19" s="51"/>
       <c r="W19" s="52" t="s">
         <v>123</v>
       </c>
       <c r="X19" s="51"/>
-      <c r="Y19" s="73" t="s">
+      <c r="Y19" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="73"/>
       <c r="AB19" s="51"/>
     </row>
-    <row r="20" spans="2:28">
-      <c r="B20" s="74" t="s">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="95"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="51"/>
       <c r="E20" s="51"/>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="95"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="95"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="51"/>
-      <c r="L20" s="74" t="s">
+      <c r="L20" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M20" s="95"/>
+      <c r="M20" s="73"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P20" s="51"/>
-      <c r="Q20" s="74" t="s">
+      <c r="Q20" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R20" s="95"/>
+      <c r="R20" s="73"/>
       <c r="S20" s="51"/>
-      <c r="T20" s="73" t="s">
+      <c r="T20" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="U20" s="95"/>
+      <c r="U20" s="73"/>
       <c r="V20" s="51"/>
       <c r="W20" s="52" t="s">
         <v>128</v>
       </c>
       <c r="X20" s="51"/>
-      <c r="Y20" s="73" t="s">
+      <c r="Y20" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
       <c r="AB20" s="51"/>
     </row>
-    <row r="21" spans="2:28">
-      <c r="B21" s="74" t="s">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="95"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="51"/>
       <c r="E21" s="51"/>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="95"/>
+      <c r="G21" s="73"/>
       <c r="H21" s="51"/>
-      <c r="I21" s="74" t="s">
+      <c r="I21" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="J21" s="95"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="51"/>
-      <c r="L21" s="74" t="s">
+      <c r="L21" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="M21" s="95"/>
+      <c r="M21" s="73"/>
       <c r="N21" s="51"/>
       <c r="O21" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P21" s="51"/>
-      <c r="Q21" s="74" t="s">
+      <c r="Q21" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R21" s="95"/>
+      <c r="R21" s="73"/>
       <c r="S21" s="51"/>
-      <c r="T21" s="73" t="s">
+      <c r="T21" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="U21" s="95"/>
+      <c r="U21" s="73"/>
       <c r="V21" s="51"/>
       <c r="W21" s="52" t="s">
         <v>133</v>
       </c>
       <c r="X21" s="51"/>
-      <c r="Y21" s="73" t="s">
+      <c r="Y21" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="73"/>
       <c r="AB21" s="51"/>
     </row>
-    <row r="22" spans="2:28">
-      <c r="B22" s="74" t="s">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="95"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="51"/>
       <c r="E22" s="51"/>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="95"/>
+      <c r="G22" s="73"/>
       <c r="H22" s="51"/>
-      <c r="I22" s="74" t="s">
+      <c r="I22" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="J22" s="95"/>
+      <c r="J22" s="73"/>
       <c r="K22" s="51"/>
-      <c r="L22" s="74" t="s">
+      <c r="L22" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="95"/>
+      <c r="M22" s="73"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P22" s="51"/>
-      <c r="Q22" s="74" t="s">
+      <c r="Q22" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R22" s="95"/>
+      <c r="R22" s="73"/>
       <c r="S22" s="51"/>
-      <c r="T22" s="73" t="s">
+      <c r="T22" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="U22" s="95"/>
+      <c r="U22" s="73"/>
       <c r="V22" s="51"/>
       <c r="W22" s="52" t="s">
         <v>138</v>
       </c>
       <c r="X22" s="51"/>
-      <c r="Y22" s="73" t="s">
+      <c r="Y22" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
       <c r="AB22" s="51"/>
     </row>
-    <row r="23" spans="2:28">
-      <c r="B23" s="74" t="s">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B23" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="95"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="95"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="51"/>
-      <c r="I23" s="74" t="s">
+      <c r="I23" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="J23" s="95"/>
+      <c r="J23" s="73"/>
       <c r="K23" s="51"/>
-      <c r="L23" s="74" t="s">
+      <c r="L23" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M23" s="95"/>
+      <c r="M23" s="73"/>
       <c r="N23" s="51"/>
       <c r="O23" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P23" s="51"/>
-      <c r="Q23" s="74" t="s">
+      <c r="Q23" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R23" s="95"/>
+      <c r="R23" s="73"/>
       <c r="S23" s="51"/>
-      <c r="T23" s="73" t="s">
+      <c r="T23" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="U23" s="95"/>
+      <c r="U23" s="73"/>
       <c r="V23" s="51"/>
       <c r="W23" s="52" t="s">
         <v>143</v>
       </c>
       <c r="X23" s="51"/>
-      <c r="Y23" s="73" t="s">
+      <c r="Y23" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
       <c r="AB23" s="51"/>
     </row>
-    <row r="24" spans="2:28">
-      <c r="B24" s="74" t="s">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="95"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="51"/>
       <c r="E24" s="51"/>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="95"/>
+      <c r="G24" s="73"/>
       <c r="H24" s="51"/>
-      <c r="I24" s="74" t="s">
+      <c r="I24" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="95"/>
+      <c r="J24" s="73"/>
       <c r="K24" s="51"/>
-      <c r="L24" s="74" t="s">
+      <c r="L24" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M24" s="95"/>
+      <c r="M24" s="73"/>
       <c r="N24" s="51"/>
       <c r="O24" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P24" s="51"/>
-      <c r="Q24" s="74" t="s">
+      <c r="Q24" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R24" s="95"/>
+      <c r="R24" s="73"/>
       <c r="S24" s="51"/>
-      <c r="T24" s="73" t="s">
+      <c r="T24" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="U24" s="95"/>
+      <c r="U24" s="73"/>
       <c r="V24" s="51"/>
       <c r="W24" s="52" t="s">
         <v>148</v>
       </c>
       <c r="X24" s="51"/>
-      <c r="Y24" s="73" t="s">
+      <c r="Y24" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
       <c r="AB24" s="51"/>
     </row>
-    <row r="25" spans="2:28">
-      <c r="B25" s="74" t="s">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="95"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="51"/>
       <c r="E25" s="51"/>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="95"/>
+      <c r="G25" s="73"/>
       <c r="H25" s="51"/>
-      <c r="I25" s="74" t="s">
+      <c r="I25" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="J25" s="95"/>
+      <c r="J25" s="73"/>
       <c r="K25" s="51"/>
-      <c r="L25" s="74" t="s">
+      <c r="L25" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="95"/>
+      <c r="M25" s="73"/>
       <c r="N25" s="51"/>
       <c r="O25" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P25" s="51"/>
-      <c r="Q25" s="74" t="s">
+      <c r="Q25" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R25" s="95"/>
+      <c r="R25" s="73"/>
       <c r="S25" s="51"/>
-      <c r="T25" s="73" t="s">
+      <c r="T25" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="U25" s="95"/>
+      <c r="U25" s="73"/>
       <c r="V25" s="51"/>
       <c r="W25" s="52" t="s">
         <v>153</v>
       </c>
       <c r="X25" s="51"/>
-      <c r="Y25" s="73" t="s">
+      <c r="Y25" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
       <c r="AB25" s="51"/>
     </row>
-    <row r="26" spans="2:28">
-      <c r="B26" s="74" t="s">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="95"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="G26" s="95"/>
+      <c r="G26" s="73"/>
       <c r="H26" s="51"/>
-      <c r="I26" s="74" t="s">
+      <c r="I26" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="95"/>
+      <c r="J26" s="73"/>
       <c r="K26" s="51"/>
-      <c r="L26" s="74" t="s">
+      <c r="L26" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M26" s="95"/>
+      <c r="M26" s="73"/>
       <c r="N26" s="51"/>
       <c r="O26" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P26" s="51"/>
-      <c r="Q26" s="74" t="s">
+      <c r="Q26" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R26" s="95"/>
+      <c r="R26" s="73"/>
       <c r="S26" s="51"/>
-      <c r="T26" s="73" t="s">
+      <c r="T26" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="U26" s="95"/>
+      <c r="U26" s="73"/>
       <c r="V26" s="51"/>
       <c r="W26" s="52" t="s">
         <v>158</v>
       </c>
       <c r="X26" s="51"/>
-      <c r="Y26" s="73" t="s">
+      <c r="Y26" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
       <c r="AB26" s="51"/>
     </row>
-    <row r="27" spans="2:28">
-      <c r="B27" s="74" t="s">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="95"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
-      <c r="F27" s="74" t="s">
+      <c r="F27" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="G27" s="95"/>
+      <c r="G27" s="73"/>
       <c r="H27" s="51"/>
-      <c r="I27" s="74" t="s">
+      <c r="I27" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="J27" s="95"/>
+      <c r="J27" s="73"/>
       <c r="K27" s="51"/>
-      <c r="L27" s="74" t="s">
+      <c r="L27" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M27" s="95"/>
+      <c r="M27" s="73"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P27" s="51"/>
-      <c r="Q27" s="74" t="s">
+      <c r="Q27" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R27" s="95"/>
+      <c r="R27" s="73"/>
       <c r="S27" s="51"/>
-      <c r="T27" s="73" t="s">
+      <c r="T27" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="U27" s="95"/>
+      <c r="U27" s="73"/>
       <c r="V27" s="51"/>
       <c r="W27" s="52" t="s">
         <v>163</v>
       </c>
       <c r="X27" s="51"/>
-      <c r="Y27" s="73" t="s">
+      <c r="Y27" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
       <c r="AB27" s="51"/>
     </row>
-    <row r="28" spans="2:28">
-      <c r="B28" s="74" t="s">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="95"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="51"/>
       <c r="E28" s="51"/>
-      <c r="F28" s="74" t="s">
+      <c r="F28" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="95"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="51"/>
-      <c r="I28" s="74" t="s">
+      <c r="I28" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="J28" s="95"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="51"/>
-      <c r="L28" s="74" t="s">
+      <c r="L28" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M28" s="95"/>
+      <c r="M28" s="73"/>
       <c r="N28" s="51"/>
       <c r="O28" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P28" s="51"/>
-      <c r="Q28" s="74" t="s">
+      <c r="Q28" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R28" s="95"/>
+      <c r="R28" s="73"/>
       <c r="S28" s="51"/>
-      <c r="T28" s="73" t="s">
+      <c r="T28" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="U28" s="95"/>
+      <c r="U28" s="73"/>
       <c r="V28" s="51"/>
       <c r="W28" s="52" t="s">
         <v>168</v>
       </c>
       <c r="X28" s="51"/>
-      <c r="Y28" s="73" t="s">
+      <c r="Y28" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
       <c r="AB28" s="51"/>
     </row>
-    <row r="29" spans="2:28">
-      <c r="B29" s="74" t="s">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="95"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
-      <c r="F29" s="74" t="s">
+      <c r="F29" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="95"/>
+      <c r="G29" s="73"/>
       <c r="H29" s="51"/>
-      <c r="I29" s="74" t="s">
+      <c r="I29" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="J29" s="95"/>
+      <c r="J29" s="73"/>
       <c r="K29" s="51"/>
-      <c r="L29" s="74" t="s">
+      <c r="L29" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M29" s="95"/>
+      <c r="M29" s="73"/>
       <c r="N29" s="51"/>
       <c r="O29" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P29" s="51"/>
-      <c r="Q29" s="74" t="s">
+      <c r="Q29" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R29" s="95"/>
+      <c r="R29" s="73"/>
       <c r="S29" s="51"/>
-      <c r="T29" s="73" t="s">
+      <c r="T29" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="U29" s="95"/>
+      <c r="U29" s="73"/>
       <c r="V29" s="51"/>
       <c r="W29" s="52" t="s">
         <v>173</v>
       </c>
       <c r="X29" s="51"/>
-      <c r="Y29" s="73" t="s">
+      <c r="Y29" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
       <c r="AB29" s="51"/>
     </row>
-    <row r="30" spans="2:28">
-      <c r="B30" s="74" t="s">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="95"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="51"/>
       <c r="E30" s="51"/>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="G30" s="95"/>
+      <c r="G30" s="73"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="74" t="s">
+      <c r="I30" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="J30" s="95"/>
+      <c r="J30" s="73"/>
       <c r="K30" s="51"/>
-      <c r="L30" s="74" t="s">
+      <c r="L30" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M30" s="95"/>
+      <c r="M30" s="73"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P30" s="51"/>
-      <c r="Q30" s="74" t="s">
+      <c r="Q30" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R30" s="95"/>
+      <c r="R30" s="73"/>
       <c r="S30" s="51"/>
-      <c r="T30" s="73" t="s">
+      <c r="T30" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="U30" s="95"/>
+      <c r="U30" s="73"/>
       <c r="V30" s="51"/>
       <c r="W30" s="52" t="s">
         <v>178</v>
       </c>
       <c r="X30" s="51"/>
-      <c r="Y30" s="73" t="s">
+      <c r="Y30" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
       <c r="AB30" s="51"/>
     </row>
-    <row r="31" spans="2:28">
-      <c r="B31" s="74" t="s">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B31" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="95"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
-      <c r="F31" s="74" t="s">
+      <c r="F31" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="G31" s="95"/>
+      <c r="G31" s="73"/>
       <c r="H31" s="51"/>
-      <c r="I31" s="74" t="s">
+      <c r="I31" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="J31" s="95"/>
+      <c r="J31" s="73"/>
       <c r="K31" s="51"/>
-      <c r="L31" s="74" t="s">
+      <c r="L31" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M31" s="95"/>
+      <c r="M31" s="73"/>
       <c r="N31" s="51"/>
       <c r="O31" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P31" s="51"/>
-      <c r="Q31" s="74" t="s">
+      <c r="Q31" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="95"/>
+      <c r="R31" s="73"/>
       <c r="S31" s="51"/>
-      <c r="T31" s="73" t="s">
+      <c r="T31" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="U31" s="95"/>
+      <c r="U31" s="73"/>
       <c r="V31" s="51"/>
       <c r="W31" s="52" t="s">
         <v>183</v>
       </c>
       <c r="X31" s="51"/>
-      <c r="Y31" s="73" t="s">
+      <c r="Y31" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
       <c r="AB31" s="51"/>
     </row>
-    <row r="32" spans="2:28">
-      <c r="B32" s="74" t="s">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B32" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="95"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="51"/>
       <c r="E32" s="51"/>
-      <c r="F32" s="74" t="s">
+      <c r="F32" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="95"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="51"/>
-      <c r="I32" s="74" t="s">
+      <c r="I32" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="J32" s="95"/>
+      <c r="J32" s="73"/>
       <c r="K32" s="51"/>
-      <c r="L32" s="74" t="s">
+      <c r="L32" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M32" s="95"/>
+      <c r="M32" s="73"/>
       <c r="N32" s="51"/>
       <c r="O32" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P32" s="51"/>
-      <c r="Q32" s="74" t="s">
+      <c r="Q32" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R32" s="95"/>
+      <c r="R32" s="73"/>
       <c r="S32" s="51"/>
-      <c r="T32" s="73" t="s">
+      <c r="T32" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="U32" s="95"/>
+      <c r="U32" s="73"/>
       <c r="V32" s="51"/>
       <c r="W32" s="52" t="s">
         <v>188</v>
       </c>
       <c r="X32" s="51"/>
-      <c r="Y32" s="73" t="s">
+      <c r="Y32" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
       <c r="AB32" s="51"/>
     </row>
-    <row r="33" spans="2:28">
-      <c r="B33" s="74" t="s">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B33" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="95"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
-      <c r="F33" s="74" t="s">
+      <c r="F33" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="G33" s="95"/>
+      <c r="G33" s="73"/>
       <c r="H33" s="51"/>
-      <c r="I33" s="74" t="s">
+      <c r="I33" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="J33" s="95"/>
+      <c r="J33" s="73"/>
       <c r="K33" s="51"/>
-      <c r="L33" s="74" t="s">
+      <c r="L33" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="95"/>
+      <c r="M33" s="73"/>
       <c r="N33" s="51"/>
       <c r="O33" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P33" s="51"/>
-      <c r="Q33" s="74" t="s">
+      <c r="Q33" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R33" s="95"/>
+      <c r="R33" s="73"/>
       <c r="S33" s="51"/>
-      <c r="T33" s="73" t="s">
+      <c r="T33" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="U33" s="95"/>
+      <c r="U33" s="73"/>
       <c r="V33" s="51"/>
       <c r="W33" s="52" t="s">
         <v>193</v>
       </c>
       <c r="X33" s="51"/>
-      <c r="Y33" s="73" t="s">
+      <c r="Y33" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
       <c r="AB33" s="51"/>
     </row>
-    <row r="34" spans="2:28">
-      <c r="B34" s="74" t="s">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B34" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="95"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="51"/>
       <c r="E34" s="51"/>
-      <c r="F34" s="74" t="s">
+      <c r="F34" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="G34" s="95"/>
+      <c r="G34" s="73"/>
       <c r="H34" s="51"/>
-      <c r="I34" s="74" t="s">
+      <c r="I34" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="J34" s="95"/>
+      <c r="J34" s="73"/>
       <c r="K34" s="51"/>
-      <c r="L34" s="74" t="s">
+      <c r="L34" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M34" s="95"/>
+      <c r="M34" s="73"/>
       <c r="N34" s="51"/>
       <c r="O34" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P34" s="51"/>
-      <c r="Q34" s="74" t="s">
+      <c r="Q34" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R34" s="95"/>
+      <c r="R34" s="73"/>
       <c r="S34" s="51"/>
-      <c r="T34" s="73" t="s">
+      <c r="T34" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="U34" s="95"/>
+      <c r="U34" s="73"/>
       <c r="V34" s="51"/>
       <c r="W34" s="52" t="s">
         <v>198</v>
       </c>
       <c r="X34" s="51"/>
-      <c r="Y34" s="73" t="s">
+      <c r="Y34" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="95"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
       <c r="AB34" s="51"/>
     </row>
-    <row r="35" spans="2:28">
-      <c r="B35" s="74" t="s">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B35" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="95"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="51"/>
       <c r="E35" s="51"/>
-      <c r="F35" s="74" t="s">
+      <c r="F35" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="G35" s="95"/>
+      <c r="G35" s="73"/>
       <c r="H35" s="51"/>
-      <c r="I35" s="74" t="s">
+      <c r="I35" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="J35" s="95"/>
+      <c r="J35" s="73"/>
       <c r="K35" s="51"/>
-      <c r="L35" s="74" t="s">
+      <c r="L35" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="95"/>
+      <c r="M35" s="73"/>
       <c r="N35" s="51"/>
       <c r="O35" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P35" s="51"/>
-      <c r="Q35" s="74" t="s">
+      <c r="Q35" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R35" s="95"/>
+      <c r="R35" s="73"/>
       <c r="S35" s="51"/>
-      <c r="T35" s="73" t="s">
+      <c r="T35" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="U35" s="95"/>
+      <c r="U35" s="73"/>
       <c r="V35" s="51"/>
       <c r="W35" s="52" t="s">
         <v>203</v>
       </c>
       <c r="X35" s="51"/>
-      <c r="Y35" s="73" t="s">
+      <c r="Y35" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="95"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="73"/>
       <c r="AB35" s="51"/>
     </row>
-    <row r="36" spans="2:28">
-      <c r="B36" s="74" t="s">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B36" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="95"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="51"/>
       <c r="E36" s="51"/>
-      <c r="F36" s="74" t="s">
+      <c r="F36" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="G36" s="95"/>
+      <c r="G36" s="73"/>
       <c r="H36" s="51"/>
-      <c r="I36" s="74" t="s">
+      <c r="I36" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="J36" s="95"/>
+      <c r="J36" s="73"/>
       <c r="K36" s="51"/>
-      <c r="L36" s="74" t="s">
+      <c r="L36" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M36" s="95"/>
+      <c r="M36" s="73"/>
       <c r="N36" s="51"/>
       <c r="O36" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P36" s="51"/>
-      <c r="Q36" s="74" t="s">
+      <c r="Q36" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R36" s="95"/>
+      <c r="R36" s="73"/>
       <c r="S36" s="51"/>
-      <c r="T36" s="73" t="s">
+      <c r="T36" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="U36" s="95"/>
+      <c r="U36" s="73"/>
       <c r="V36" s="51"/>
       <c r="W36" s="52" t="s">
         <v>208</v>
       </c>
       <c r="X36" s="51"/>
-      <c r="Y36" s="73" t="s">
+      <c r="Y36" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="Z36" s="95"/>
-      <c r="AA36" s="95"/>
+      <c r="Z36" s="73"/>
+      <c r="AA36" s="73"/>
       <c r="AB36" s="51"/>
     </row>
-    <row r="37" spans="2:28">
-      <c r="B37" s="74" t="s">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B37" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="95"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="51"/>
       <c r="E37" s="51"/>
-      <c r="F37" s="74" t="s">
+      <c r="F37" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="G37" s="95"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="51"/>
-      <c r="I37" s="74" t="s">
+      <c r="I37" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="J37" s="95"/>
+      <c r="J37" s="73"/>
       <c r="K37" s="51"/>
-      <c r="L37" s="74" t="s">
+      <c r="L37" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M37" s="95"/>
+      <c r="M37" s="73"/>
       <c r="N37" s="51"/>
       <c r="O37" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P37" s="51"/>
-      <c r="Q37" s="74" t="s">
+      <c r="Q37" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R37" s="95"/>
+      <c r="R37" s="73"/>
       <c r="S37" s="51"/>
-      <c r="T37" s="73" t="s">
+      <c r="T37" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="U37" s="95"/>
+      <c r="U37" s="73"/>
       <c r="V37" s="51"/>
       <c r="W37" s="52" t="s">
         <v>213</v>
       </c>
       <c r="X37" s="51"/>
-      <c r="Y37" s="73" t="s">
+      <c r="Y37" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="Z37" s="95"/>
-      <c r="AA37" s="95"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
       <c r="AB37" s="51"/>
     </row>
-    <row r="38" spans="2:28">
-      <c r="B38" s="74" t="s">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B38" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="95"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="51"/>
       <c r="E38" s="51"/>
-      <c r="F38" s="74" t="s">
+      <c r="F38" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="G38" s="95"/>
+      <c r="G38" s="73"/>
       <c r="H38" s="51"/>
-      <c r="I38" s="74" t="s">
+      <c r="I38" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="J38" s="95"/>
+      <c r="J38" s="73"/>
       <c r="K38" s="51"/>
-      <c r="L38" s="74" t="s">
+      <c r="L38" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M38" s="95"/>
+      <c r="M38" s="73"/>
       <c r="N38" s="51"/>
       <c r="O38" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P38" s="51"/>
-      <c r="Q38" s="74" t="s">
+      <c r="Q38" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R38" s="95"/>
+      <c r="R38" s="73"/>
       <c r="S38" s="51"/>
-      <c r="T38" s="73" t="s">
+      <c r="T38" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="U38" s="95"/>
+      <c r="U38" s="73"/>
       <c r="V38" s="51"/>
       <c r="W38" s="52" t="s">
         <v>218</v>
       </c>
       <c r="X38" s="51"/>
-      <c r="Y38" s="73" t="s">
+      <c r="Y38" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="Z38" s="95"/>
-      <c r="AA38" s="95"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
       <c r="AB38" s="51"/>
     </row>
-    <row r="39" spans="2:28">
-      <c r="B39" s="74" t="s">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B39" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="95"/>
+      <c r="C39" s="73"/>
       <c r="D39" s="51"/>
       <c r="E39" s="51"/>
-      <c r="F39" s="74" t="s">
+      <c r="F39" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="G39" s="95"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="51"/>
-      <c r="I39" s="74" t="s">
+      <c r="I39" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="J39" s="95"/>
+      <c r="J39" s="73"/>
       <c r="K39" s="51"/>
-      <c r="L39" s="74" t="s">
+      <c r="L39" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M39" s="95"/>
+      <c r="M39" s="73"/>
       <c r="N39" s="51"/>
       <c r="O39" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P39" s="51"/>
-      <c r="Q39" s="74" t="s">
+      <c r="Q39" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R39" s="95"/>
+      <c r="R39" s="73"/>
       <c r="S39" s="51"/>
-      <c r="T39" s="73" t="s">
+      <c r="T39" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="U39" s="95"/>
+      <c r="U39" s="73"/>
       <c r="V39" s="51"/>
       <c r="W39" s="52" t="s">
         <v>223</v>
       </c>
       <c r="X39" s="51"/>
-      <c r="Y39" s="73" t="s">
+      <c r="Y39" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="Z39" s="95"/>
-      <c r="AA39" s="95"/>
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="73"/>
       <c r="AB39" s="51"/>
     </row>
-    <row r="40" spans="2:28">
-      <c r="B40" s="74" t="s">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B40" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="95"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="51"/>
       <c r="E40" s="51"/>
-      <c r="F40" s="74" t="s">
+      <c r="F40" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="G40" s="95"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="51"/>
-      <c r="I40" s="74" t="s">
+      <c r="I40" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="J40" s="95"/>
+      <c r="J40" s="73"/>
       <c r="K40" s="51"/>
-      <c r="L40" s="74" t="s">
+      <c r="L40" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M40" s="95"/>
+      <c r="M40" s="73"/>
       <c r="N40" s="51"/>
       <c r="O40" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P40" s="51"/>
-      <c r="Q40" s="74" t="s">
+      <c r="Q40" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R40" s="95"/>
+      <c r="R40" s="73"/>
       <c r="S40" s="51"/>
-      <c r="T40" s="73" t="s">
+      <c r="T40" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="U40" s="95"/>
+      <c r="U40" s="73"/>
       <c r="V40" s="51"/>
       <c r="W40" s="52" t="s">
         <v>228</v>
       </c>
       <c r="X40" s="51"/>
-      <c r="Y40" s="73" t="s">
+      <c r="Y40" s="80" t="s">
         <v>229</v>
       </c>
-      <c r="Z40" s="95"/>
-      <c r="AA40" s="95"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="73"/>
       <c r="AB40" s="51"/>
     </row>
-    <row r="41" spans="2:28">
-      <c r="B41" s="74" t="s">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B41" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="95"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="51"/>
       <c r="E41" s="51"/>
-      <c r="F41" s="74" t="s">
+      <c r="F41" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="95"/>
+      <c r="G41" s="73"/>
       <c r="H41" s="51"/>
-      <c r="I41" s="74" t="s">
+      <c r="I41" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="J41" s="95"/>
+      <c r="J41" s="73"/>
       <c r="K41" s="51"/>
-      <c r="L41" s="74" t="s">
+      <c r="L41" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M41" s="95"/>
+      <c r="M41" s="73"/>
       <c r="N41" s="51"/>
       <c r="O41" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P41" s="51"/>
-      <c r="Q41" s="74" t="s">
+      <c r="Q41" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R41" s="95"/>
+      <c r="R41" s="73"/>
       <c r="S41" s="51"/>
-      <c r="T41" s="73" t="s">
+      <c r="T41" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="U41" s="95"/>
+      <c r="U41" s="73"/>
       <c r="V41" s="51"/>
       <c r="W41" s="52" t="s">
         <v>233</v>
       </c>
       <c r="X41" s="51"/>
-      <c r="Y41" s="73" t="s">
+      <c r="Y41" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="Z41" s="95"/>
-      <c r="AA41" s="95"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
       <c r="AB41" s="51"/>
     </row>
-    <row r="42" spans="2:28">
-      <c r="B42" s="74" t="s">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B42" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="95"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="51"/>
       <c r="E42" s="51"/>
-      <c r="F42" s="74" t="s">
+      <c r="F42" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="G42" s="95"/>
+      <c r="G42" s="73"/>
       <c r="H42" s="51"/>
-      <c r="I42" s="74" t="s">
+      <c r="I42" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="J42" s="95"/>
+      <c r="J42" s="73"/>
       <c r="K42" s="51"/>
-      <c r="L42" s="74" t="s">
+      <c r="L42" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M42" s="95"/>
+      <c r="M42" s="73"/>
       <c r="N42" s="51"/>
       <c r="O42" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P42" s="51"/>
-      <c r="Q42" s="74" t="s">
+      <c r="Q42" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R42" s="95"/>
+      <c r="R42" s="73"/>
       <c r="S42" s="51"/>
-      <c r="T42" s="73" t="s">
+      <c r="T42" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="U42" s="95"/>
+      <c r="U42" s="73"/>
       <c r="V42" s="51"/>
       <c r="W42" s="52" t="s">
         <v>238</v>
       </c>
       <c r="X42" s="51"/>
-      <c r="Y42" s="73" t="s">
+      <c r="Y42" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="Z42" s="95"/>
-      <c r="AA42" s="95"/>
+      <c r="Z42" s="73"/>
+      <c r="AA42" s="73"/>
       <c r="AB42" s="51"/>
     </row>
-    <row r="43" spans="2:28">
-      <c r="B43" s="74" t="s">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B43" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="95"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="51"/>
       <c r="E43" s="51"/>
-      <c r="F43" s="74" t="s">
+      <c r="F43" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="G43" s="95"/>
+      <c r="G43" s="73"/>
       <c r="H43" s="51"/>
-      <c r="I43" s="74" t="s">
+      <c r="I43" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="J43" s="95"/>
+      <c r="J43" s="73"/>
       <c r="K43" s="51"/>
-      <c r="L43" s="74" t="s">
+      <c r="L43" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M43" s="95"/>
+      <c r="M43" s="73"/>
       <c r="N43" s="51"/>
       <c r="O43" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P43" s="51"/>
-      <c r="Q43" s="74" t="s">
+      <c r="Q43" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R43" s="95"/>
+      <c r="R43" s="73"/>
       <c r="S43" s="51"/>
-      <c r="T43" s="73" t="s">
+      <c r="T43" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="U43" s="95"/>
+      <c r="U43" s="73"/>
       <c r="V43" s="51"/>
       <c r="W43" s="52" t="s">
         <v>243</v>
       </c>
       <c r="X43" s="51"/>
-      <c r="Y43" s="73" t="s">
+      <c r="Y43" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="95"/>
+      <c r="Z43" s="73"/>
+      <c r="AA43" s="73"/>
       <c r="AB43" s="51"/>
     </row>
-    <row r="44" spans="2:28">
-      <c r="B44" s="74" t="s">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B44" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="95"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="51"/>
       <c r="E44" s="51"/>
-      <c r="F44" s="74" t="s">
+      <c r="F44" s="81" t="s">
         <v>245</v>
       </c>
-      <c r="G44" s="95"/>
+      <c r="G44" s="73"/>
       <c r="H44" s="51"/>
-      <c r="I44" s="74" t="s">
+      <c r="I44" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="J44" s="95"/>
+      <c r="J44" s="73"/>
       <c r="K44" s="51"/>
-      <c r="L44" s="74" t="s">
+      <c r="L44" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M44" s="95"/>
+      <c r="M44" s="73"/>
       <c r="N44" s="51"/>
       <c r="O44" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P44" s="51"/>
-      <c r="Q44" s="74" t="s">
+      <c r="Q44" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R44" s="95"/>
+      <c r="R44" s="73"/>
       <c r="S44" s="51"/>
-      <c r="T44" s="73" t="s">
+      <c r="T44" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="U44" s="95"/>
+      <c r="U44" s="73"/>
       <c r="V44" s="51"/>
       <c r="W44" s="52" t="s">
         <v>248</v>
       </c>
       <c r="X44" s="51"/>
-      <c r="Y44" s="73" t="s">
+      <c r="Y44" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="Z44" s="95"/>
-      <c r="AA44" s="95"/>
+      <c r="Z44" s="73"/>
+      <c r="AA44" s="73"/>
       <c r="AB44" s="51"/>
     </row>
-    <row r="45" spans="2:28">
-      <c r="B45" s="74" t="s">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B45" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="95"/>
+      <c r="C45" s="73"/>
       <c r="D45" s="51"/>
       <c r="E45" s="51"/>
-      <c r="F45" s="74" t="s">
+      <c r="F45" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="G45" s="95"/>
+      <c r="G45" s="73"/>
       <c r="H45" s="51"/>
-      <c r="I45" s="74" t="s">
+      <c r="I45" s="81" t="s">
         <v>251</v>
       </c>
-      <c r="J45" s="95"/>
+      <c r="J45" s="73"/>
       <c r="K45" s="51"/>
-      <c r="L45" s="74" t="s">
+      <c r="L45" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M45" s="95"/>
+      <c r="M45" s="73"/>
       <c r="N45" s="51"/>
       <c r="O45" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P45" s="51"/>
-      <c r="Q45" s="74" t="s">
+      <c r="Q45" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R45" s="95"/>
+      <c r="R45" s="73"/>
       <c r="S45" s="51"/>
-      <c r="T45" s="73" t="s">
+      <c r="T45" s="80" t="s">
         <v>252</v>
       </c>
-      <c r="U45" s="95"/>
+      <c r="U45" s="73"/>
       <c r="V45" s="51"/>
       <c r="W45" s="52" t="s">
         <v>253</v>
       </c>
       <c r="X45" s="51"/>
-      <c r="Y45" s="73" t="s">
+      <c r="Y45" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="Z45" s="95"/>
-      <c r="AA45" s="95"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="73"/>
       <c r="AB45" s="51"/>
     </row>
-    <row r="46" spans="2:28">
-      <c r="B46" s="74" t="s">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B46" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="95"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="51"/>
       <c r="E46" s="51"/>
-      <c r="F46" s="74" t="s">
+      <c r="F46" s="81" t="s">
         <v>255</v>
       </c>
-      <c r="G46" s="95"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="51"/>
-      <c r="I46" s="74" t="s">
+      <c r="I46" s="81" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="95"/>
+      <c r="J46" s="73"/>
       <c r="K46" s="51"/>
-      <c r="L46" s="74" t="s">
+      <c r="L46" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M46" s="95"/>
+      <c r="M46" s="73"/>
       <c r="N46" s="51"/>
       <c r="O46" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P46" s="51"/>
-      <c r="Q46" s="74" t="s">
+      <c r="Q46" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R46" s="95"/>
+      <c r="R46" s="73"/>
       <c r="S46" s="51"/>
-      <c r="T46" s="73" t="s">
+      <c r="T46" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="U46" s="95"/>
+      <c r="U46" s="73"/>
       <c r="V46" s="51"/>
       <c r="W46" s="52" t="s">
         <v>258</v>
       </c>
       <c r="X46" s="51"/>
-      <c r="Y46" s="73" t="s">
+      <c r="Y46" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="Z46" s="95"/>
-      <c r="AA46" s="95"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="73"/>
       <c r="AB46" s="51"/>
     </row>
-    <row r="47" spans="2:28">
-      <c r="B47" s="74" t="s">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B47" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="95"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="51"/>
       <c r="E47" s="51"/>
-      <c r="F47" s="74" t="s">
+      <c r="F47" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="G47" s="95"/>
+      <c r="G47" s="73"/>
       <c r="H47" s="51"/>
-      <c r="I47" s="74" t="s">
+      <c r="I47" s="81" t="s">
         <v>261</v>
       </c>
-      <c r="J47" s="95"/>
+      <c r="J47" s="73"/>
       <c r="K47" s="51"/>
-      <c r="L47" s="74" t="s">
+      <c r="L47" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M47" s="95"/>
+      <c r="M47" s="73"/>
       <c r="N47" s="51"/>
       <c r="O47" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P47" s="51"/>
-      <c r="Q47" s="74" t="s">
+      <c r="Q47" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R47" s="95"/>
+      <c r="R47" s="73"/>
       <c r="S47" s="51"/>
-      <c r="T47" s="73" t="s">
+      <c r="T47" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="U47" s="95"/>
+      <c r="U47" s="73"/>
       <c r="V47" s="51"/>
       <c r="W47" s="52" t="s">
         <v>263</v>
       </c>
       <c r="X47" s="51"/>
-      <c r="Y47" s="73" t="s">
+      <c r="Y47" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="Z47" s="95"/>
-      <c r="AA47" s="95"/>
+      <c r="Z47" s="73"/>
+      <c r="AA47" s="73"/>
       <c r="AB47" s="51"/>
     </row>
-    <row r="48" spans="2:28">
-      <c r="B48" s="74" t="s">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B48" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="95"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="51"/>
       <c r="E48" s="51"/>
-      <c r="F48" s="74" t="s">
+      <c r="F48" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="G48" s="95"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="51"/>
-      <c r="I48" s="74" t="s">
+      <c r="I48" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="J48" s="95"/>
+      <c r="J48" s="73"/>
       <c r="K48" s="51"/>
-      <c r="L48" s="74" t="s">
+      <c r="L48" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M48" s="95"/>
+      <c r="M48" s="73"/>
       <c r="N48" s="51"/>
       <c r="O48" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P48" s="51"/>
-      <c r="Q48" s="74" t="s">
+      <c r="Q48" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R48" s="95"/>
+      <c r="R48" s="73"/>
       <c r="S48" s="51"/>
-      <c r="T48" s="73" t="s">
+      <c r="T48" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="U48" s="95"/>
+      <c r="U48" s="73"/>
       <c r="V48" s="51"/>
       <c r="W48" s="52" t="s">
         <v>268</v>
       </c>
       <c r="X48" s="51"/>
-      <c r="Y48" s="73" t="s">
+      <c r="Y48" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="Z48" s="95"/>
-      <c r="AA48" s="95"/>
+      <c r="Z48" s="73"/>
+      <c r="AA48" s="73"/>
       <c r="AB48" s="51"/>
     </row>
-    <row r="49" spans="2:28">
-      <c r="B49" s="74" t="s">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B49" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="95"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="51"/>
       <c r="E49" s="51"/>
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="G49" s="95"/>
+      <c r="G49" s="73"/>
       <c r="H49" s="51"/>
-      <c r="I49" s="74" t="s">
+      <c r="I49" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="J49" s="95"/>
+      <c r="J49" s="73"/>
       <c r="K49" s="51"/>
-      <c r="L49" s="74" t="s">
+      <c r="L49" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M49" s="95"/>
+      <c r="M49" s="73"/>
       <c r="N49" s="51"/>
       <c r="O49" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P49" s="51"/>
-      <c r="Q49" s="74" t="s">
+      <c r="Q49" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R49" s="95"/>
+      <c r="R49" s="73"/>
       <c r="S49" s="51"/>
-      <c r="T49" s="73" t="s">
+      <c r="T49" s="80" t="s">
         <v>272</v>
       </c>
-      <c r="U49" s="95"/>
+      <c r="U49" s="73"/>
       <c r="V49" s="51"/>
       <c r="W49" s="52" t="s">
         <v>273</v>
       </c>
       <c r="X49" s="51"/>
-      <c r="Y49" s="73" t="s">
+      <c r="Y49" s="80" t="s">
         <v>274</v>
       </c>
-      <c r="Z49" s="95"/>
-      <c r="AA49" s="95"/>
+      <c r="Z49" s="73"/>
+      <c r="AA49" s="73"/>
       <c r="AB49" s="51"/>
     </row>
-    <row r="50" spans="2:28">
-      <c r="B50" s="74" t="s">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B50" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="95"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="51"/>
       <c r="E50" s="51"/>
-      <c r="F50" s="74" t="s">
+      <c r="F50" s="81" t="s">
         <v>275</v>
       </c>
-      <c r="G50" s="95"/>
+      <c r="G50" s="73"/>
       <c r="H50" s="51"/>
-      <c r="I50" s="74" t="s">
+      <c r="I50" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="J50" s="95"/>
+      <c r="J50" s="73"/>
       <c r="K50" s="51"/>
-      <c r="L50" s="74" t="s">
+      <c r="L50" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M50" s="95"/>
+      <c r="M50" s="73"/>
       <c r="N50" s="51"/>
       <c r="O50" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P50" s="51"/>
-      <c r="Q50" s="74" t="s">
+      <c r="Q50" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R50" s="95"/>
+      <c r="R50" s="73"/>
       <c r="S50" s="51"/>
-      <c r="T50" s="73" t="s">
+      <c r="T50" s="80" t="s">
         <v>277</v>
       </c>
-      <c r="U50" s="95"/>
+      <c r="U50" s="73"/>
       <c r="V50" s="51"/>
       <c r="W50" s="52" t="s">
         <v>278</v>
       </c>
       <c r="X50" s="51"/>
-      <c r="Y50" s="73" t="s">
+      <c r="Y50" s="80" t="s">
         <v>279</v>
       </c>
-      <c r="Z50" s="95"/>
-      <c r="AA50" s="95"/>
+      <c r="Z50" s="73"/>
+      <c r="AA50" s="73"/>
       <c r="AB50" s="51"/>
     </row>
-    <row r="51" spans="2:28">
-      <c r="B51" s="74" t="s">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B51" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="95"/>
+      <c r="C51" s="73"/>
       <c r="D51" s="51"/>
       <c r="E51" s="51"/>
-      <c r="F51" s="74" t="s">
+      <c r="F51" s="81" t="s">
         <v>280</v>
       </c>
-      <c r="G51" s="95"/>
+      <c r="G51" s="73"/>
       <c r="H51" s="51"/>
-      <c r="I51" s="74" t="s">
+      <c r="I51" s="81" t="s">
         <v>281</v>
       </c>
-      <c r="J51" s="95"/>
+      <c r="J51" s="73"/>
       <c r="K51" s="51"/>
-      <c r="L51" s="74" t="s">
+      <c r="L51" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M51" s="95"/>
+      <c r="M51" s="73"/>
       <c r="N51" s="51"/>
       <c r="O51" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P51" s="51"/>
-      <c r="Q51" s="74" t="s">
+      <c r="Q51" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R51" s="95"/>
+      <c r="R51" s="73"/>
       <c r="S51" s="51"/>
-      <c r="T51" s="73" t="s">
+      <c r="T51" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="U51" s="95"/>
+      <c r="U51" s="73"/>
       <c r="V51" s="51"/>
       <c r="W51" s="52" t="s">
         <v>283</v>
       </c>
       <c r="X51" s="51"/>
-      <c r="Y51" s="73" t="s">
+      <c r="Y51" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="Z51" s="95"/>
-      <c r="AA51" s="95"/>
+      <c r="Z51" s="73"/>
+      <c r="AA51" s="73"/>
       <c r="AB51" s="51"/>
     </row>
-    <row r="52" spans="2:28">
-      <c r="B52" s="74" t="s">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B52" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="95"/>
+      <c r="C52" s="73"/>
       <c r="D52" s="51"/>
       <c r="E52" s="51"/>
-      <c r="F52" s="74" t="s">
+      <c r="F52" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="G52" s="95"/>
+      <c r="G52" s="73"/>
       <c r="H52" s="51"/>
-      <c r="I52" s="74" t="s">
+      <c r="I52" s="81" t="s">
         <v>286</v>
       </c>
-      <c r="J52" s="95"/>
+      <c r="J52" s="73"/>
       <c r="K52" s="51"/>
-      <c r="L52" s="74" t="s">
+      <c r="L52" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="M52" s="95"/>
+      <c r="M52" s="73"/>
       <c r="N52" s="51"/>
       <c r="O52" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P52" s="51"/>
-      <c r="Q52" s="74" t="s">
+      <c r="Q52" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R52" s="95"/>
+      <c r="R52" s="73"/>
       <c r="S52" s="51"/>
-      <c r="T52" s="73" t="s">
+      <c r="T52" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="U52" s="95"/>
+      <c r="U52" s="73"/>
       <c r="V52" s="51"/>
       <c r="W52" s="52" t="s">
         <v>288</v>
       </c>
       <c r="X52" s="51"/>
-      <c r="Y52" s="73" t="s">
+      <c r="Y52" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="Z52" s="95"/>
-      <c r="AA52" s="95"/>
+      <c r="Z52" s="73"/>
+      <c r="AA52" s="73"/>
       <c r="AB52" s="51"/>
     </row>
-    <row r="53" spans="2:28">
-      <c r="B53" s="74" t="s">
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B53" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="95"/>
+      <c r="C53" s="73"/>
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
-      <c r="F53" s="74" t="s">
+      <c r="F53" s="81" t="s">
         <v>290</v>
       </c>
-      <c r="G53" s="95"/>
+      <c r="G53" s="73"/>
       <c r="H53" s="51"/>
-      <c r="I53" s="74" t="s">
+      <c r="I53" s="81" t="s">
         <v>291</v>
       </c>
-      <c r="J53" s="95"/>
+      <c r="J53" s="73"/>
       <c r="K53" s="51"/>
-      <c r="L53" s="74" t="s">
+      <c r="L53" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="M53" s="95"/>
+      <c r="M53" s="73"/>
       <c r="N53" s="51"/>
       <c r="O53" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P53" s="51"/>
-      <c r="Q53" s="74" t="s">
+      <c r="Q53" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="R53" s="95"/>
+      <c r="R53" s="73"/>
       <c r="S53" s="51"/>
-      <c r="T53" s="73" t="s">
+      <c r="T53" s="80" t="s">
         <v>292</v>
       </c>
-      <c r="U53" s="95"/>
+      <c r="U53" s="73"/>
       <c r="V53" s="51"/>
       <c r="W53" s="52" t="s">
         <v>293</v>
       </c>
       <c r="X53" s="51"/>
-      <c r="Y53" s="73" t="s">
+      <c r="Y53" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="Z53" s="95"/>
-      <c r="AA53" s="95"/>
+      <c r="Z53" s="73"/>
+      <c r="AA53" s="73"/>
       <c r="AB53" s="51"/>
     </row>
-    <row r="54" spans="2:28">
-      <c r="B54" s="74" t="s">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B54" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="95"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="51"/>
       <c r="E54" s="51"/>
-      <c r="F54" s="74" t="s">
+      <c r="F54" s="81" t="s">
         <v>290</v>
       </c>
-      <c r="G54" s="95"/>
+      <c r="G54" s="73"/>
       <c r="H54" s="51"/>
-      <c r="I54" s="74" t="s">
+      <c r="I54" s="81" t="s">
         <v>295</v>
       </c>
-      <c r="J54" s="95"/>
+      <c r="J54" s="73"/>
       <c r="K54" s="51"/>
-      <c r="L54" s="74" t="s">
+      <c r="L54" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="M54" s="95"/>
+      <c r="M54" s="73"/>
       <c r="N54" s="51"/>
       <c r="O54" s="51" t="s">
         <v>89</v>
       </c>
       <c r="P54" s="51"/>
-      <c r="Q54" s="74" t="s">
+      <c r="Q54" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="R54" s="95"/>
+      <c r="R54" s="73"/>
       <c r="S54" s="51"/>
-      <c r="T54" s="73" t="s">
+      <c r="T54" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="U54" s="95"/>
+      <c r="U54" s="73"/>
       <c r="V54" s="51"/>
       <c r="W54" s="52" t="s">
         <v>293</v>
       </c>
       <c r="X54" s="51"/>
-      <c r="Y54" s="73" t="s">
+      <c r="Y54" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="Z54" s="95"/>
-      <c r="AA54" s="95"/>
+      <c r="Z54" s="73"/>
+      <c r="AA54" s="73"/>
       <c r="AB54" s="51"/>
     </row>
-    <row r="55" spans="2:28" ht="4.7" customHeight="1"/>
+    <row r="55" spans="2:28" ht="4.7" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="320">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="M3:U3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T13:U13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:J12"/>
@@ -7893,300 +8179,15 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="T11:U11"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="Y11:AA11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8201,7 +8202,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -9229,213 +9230,213 @@
     <col min="16147" max="16149" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="87"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="90"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="85" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="88"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="91"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="87"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="81" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="88"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="83"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="91" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="84"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93" t="s">
         <v>302</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="93" t="s">
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
       <c r="S7" s="53"/>
       <c r="T7" s="53"/>
       <c r="U7" s="54"/>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="93" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="M8" s="91" t="s">
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="M8" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="94" t="s">
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
       <c r="S8" s="55"/>
       <c r="T8" s="55"/>
       <c r="U8" s="55"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -9458,57 +9459,57 @@
       <c r="T9" s="55"/>
       <c r="U9" s="55"/>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="85" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="87"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="81" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="88"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="83"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="84"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>7</v>
       </c>
@@ -9573,7 +9574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>85</v>
       </c>
@@ -9630,7 +9631,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>85</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>346</v>
       </c>
@@ -9772,7 +9773,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -10800,213 +10801,213 @@
     <col min="16147" max="16149" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="87"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="90"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="85" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="88"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="91"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="87"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="81" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="88"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="83"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="91" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="84"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93" t="s">
         <v>351</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="93" t="s">
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
       <c r="S7" s="53"/>
       <c r="T7" s="53"/>
       <c r="U7" s="54"/>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="93" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="M8" s="91" t="s">
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="M8" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="94" t="s">
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="95" t="s">
         <v>352</v>
       </c>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
       <c r="S8" s="55"/>
       <c r="T8" s="55"/>
       <c r="U8" s="55"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -11029,57 +11030,57 @@
       <c r="T9" s="55"/>
       <c r="U9" s="55"/>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="85" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="87"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="81" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="88"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="83"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="84"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>7</v>
       </c>
@@ -11144,7 +11145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>346</v>
       </c>
@@ -11231,7 +11232,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -12259,213 +12260,213 @@
     <col min="16147" max="16149" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="87"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="90"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="85" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="88"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="91"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="87"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="81" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="88"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="s">
         <v>333</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="83"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="91" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="84"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="93" t="s">
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
       <c r="S7" s="53"/>
       <c r="T7" s="53"/>
       <c r="U7" s="54"/>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="93" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="M8" s="91" t="s">
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="M8" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="94" t="s">
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
       <c r="S8" s="55"/>
       <c r="T8" s="55"/>
       <c r="U8" s="55"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -12488,57 +12489,57 @@
       <c r="T9" s="55"/>
       <c r="U9" s="55"/>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="85" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="87"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="81" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="88"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="83"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="84"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>7</v>
       </c>
@@ -12603,7 +12604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>85</v>
       </c>
@@ -12660,7 +12661,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>85</v>
       </c>
@@ -12717,7 +12718,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>85</v>
       </c>
@@ -12774,7 +12775,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>85</v>
       </c>
@@ -12831,7 +12832,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>85</v>
       </c>
@@ -12888,7 +12889,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
         <v>85</v>
       </c>
@@ -12945,7 +12946,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>85</v>
       </c>
@@ -13002,7 +13003,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
         <v>85</v>
       </c>
@@ -13059,7 +13060,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
         <v>85</v>
       </c>
@@ -13116,7 +13117,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
         <v>85</v>
       </c>
@@ -13173,7 +13174,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
         <v>85</v>
       </c>
@@ -13230,7 +13231,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
         <v>85</v>
       </c>
@@ -13317,7 +13318,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -14345,213 +14346,213 @@
     <col min="16147" max="16149" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="87"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="90"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="85" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="88"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="91"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="87"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="81" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="88"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="s">
         <v>333</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="83"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="91" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="84"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93" t="s">
         <v>426</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="93" t="s">
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
       <c r="S7" s="53"/>
       <c r="T7" s="53"/>
       <c r="U7" s="54"/>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="93" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="M8" s="91" t="s">
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="M8" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="94" t="s">
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="95" t="s">
         <v>427</v>
       </c>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
       <c r="S8" s="55"/>
       <c r="T8" s="55"/>
       <c r="U8" s="55"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -14574,57 +14575,57 @@
       <c r="T9" s="55"/>
       <c r="U9" s="55"/>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="85" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="87"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="81" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="88"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="83"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="84"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>7</v>
       </c>
@@ -14689,7 +14690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>85</v>
       </c>
@@ -14746,7 +14747,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>85</v>
       </c>
@@ -14803,7 +14804,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>85</v>
       </c>
@@ -14860,7 +14861,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>346</v>
       </c>
@@ -14949,6 +14950,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005CEA4A3271DCBA4EAAF6546E5E72E6B9" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9f4703c42411a0ab2cbe4f76d07c363a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67a8ef32-fc59-4c7d-bd11-99ee693961a8" xmlns:ns3="5ba551d7-4968-4bed-ac2a-9940209dff60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a08d7022bf1d2286744d4d783241da1" ns2:_="" ns3:_="">
     <xsd:import namespace="67a8ef32-fc59-4c7d-bd11-99ee693961a8"/>
@@ -15113,20 +15120,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EEDCFB8-0395-4126-A469-330C8C8180BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EEDCFB8-0395-4126-A469-330C8C8180BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{298643D0-8914-4F0D-BE12-300C6C7C0006}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4F7EBFF-6049-4C74-8F03-7ECD3886135F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4F7EBFF-6049-4C74-8F03-7ECD3886135F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{298643D0-8914-4F0D-BE12-300C6C7C0006}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="67a8ef32-fc59-4c7d-bd11-99ee693961a8"/>
+    <ds:schemaRef ds:uri="5ba551d7-4968-4bed-ac2a-9940209dff60"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>